--- a/biology/Botanique/Forêts_décidues_sèches_de_Madagascar/Forêts_décidues_sèches_de_Madagascar.xlsx
+++ b/biology/Botanique/Forêts_décidues_sèches_de_Madagascar/Forêts_décidues_sèches_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%C3%A9cidues_s%C3%A8ches_de_Madagascar</t>
+          <t>Forêts_décidues_sèches_de_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts décidues sèches de Madagascar forment une écorégion terrestre de forêts tropicales sèches situées dans la partie occidentale de Madagascar. Ces biotopes abritent un grand nombre d'espèces de plantes et d'animaux endémiques, mais a subi un déboisement massif à cause de l'agriculture. Ce processus est en cours et c'est pourquoi le WWF a placé ces forêts parmi les écorégions du Global 200, regroupant les régions les plus cruciales au monde pour la conservation de la nature. La zone du lac Manambolomaty en particulier est le foyer de nombreuses espèces de poissons et d'oiseaux. La zone abrite aussi les formations karstiques et de calcaire distinctives appelées tsingy, dont le site du patrimoine mondial de la réserve naturelle intégrale du Tsingy de Bemaraha.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%C3%A9cidues_s%C3%A8ches_de_Madagascar</t>
+          <t>Forêts_décidues_sèches_de_Madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Faune endémique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs vertébrés sont considérés comme endémiques de l'écorégion[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs vertébrés sont considérés comme endémiques de l'écorégion :
 Anoures
 Mantidactylus wittei
 Tortues
@@ -581,7 +595,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%C3%A9cidues_s%C3%A8ches_de_Madagascar</t>
+          <t>Forêts_décidues_sèches_de_Madagascar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -599,11 +613,13 @@
           <t>Flore endémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore des forêts de l'Ouest de Madagascar est très originale et ne comporte que peu d'espèces communes à celle des forêts du versant oriental. Les espèces caractéristiques sont Dalbergia spp, Commiphora spp, Hildegardia (en) spp, Cedrelopsis grevei… Les palmiers ne sont représentés que par deux espèces Bismarckia nobilis et Borassus madagascariensis.
 On note l’absence de strate herbacée sauf le long des pistes, l'abondance des lianes, la floraison en saison sèche en l’absence de feuilles, ainsi que  plusieurs formes de xérophilie telles que la réduction de la surface foliaire, la pachycaulie, la spinescence. Certaines espèces sont munies de contreforts ou d'échasses (Pandanus), et les espèces épiphytes sont peu représentées.
-Liste des espèces forestières endémiques de l'éco-région[2],[3],[4],[5],[6],[7],[8]:
+Liste des espèces forestières endémiques de l'éco-région:
 Acanthaceae
 Anacardiaceae
 Annonaceae
